--- a/algorithms/matrix.xlsx
+++ b/algorithms/matrix.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\SICNU\algorithms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141327E-C075-4137-A682-EF92A10A4B7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9630"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,6 +227,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -268,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,9 +310,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,6 +362,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,16 +554,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="5.625" style="5" customWidth="1"/>
+    <col min="1" max="16" width="4.625" style="5" customWidth="1"/>
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -707,6 +750,18 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
@@ -721,6 +776,18 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>21</v>
       </c>
@@ -732,6 +799,100 @@
       </c>
       <c r="P10" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -755,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
